--- a/doc/tables/landings.xlsx
+++ b/doc/tables/landings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19937" windowHeight="11331"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17589" windowHeight="12977" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NCA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Reconstruction</t>
-  </si>
-  <si>
-    <t>Coop Groundfish Survey</t>
   </si>
 </sst>
 </file>
@@ -377,11 +374,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1850,7 +1851,7 @@
         <v>147.227</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -1864,7 +1865,7 @@
         <v>207.084</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -1878,7 +1879,7 @@
         <v>156.72</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3320,7 +3321,7 @@
         <v>24.298999999999999</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
@@ -3334,7 +3335,7 @@
         <v>24.303999999999998</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
@@ -3348,7 +3349,7 @@
         <v>51.305999999999997</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
@@ -5308,7 +5309,7 @@
         <v>36.496000000000002</v>
       </c>
       <c r="D352" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.4">
@@ -5882,7 +5883,7 @@
         <v>2.2639999999999998</v>
       </c>
       <c r="D393" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.4">
@@ -7184,7 +7185,7 @@
         <v>36.835000000000001</v>
       </c>
       <c r="D486" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.4">
@@ -7758,7 +7759,7 @@
         <v>1.748</v>
       </c>
       <c r="D527" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.4">
@@ -7994,11 +7995,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -9509,7 +9514,7 @@
         <v>101.069</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -9523,7 +9528,7 @@
         <v>156.83000000000001</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -10503,7 +10508,7 @@
         <v>0.624</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
@@ -10517,7 +10522,7 @@
         <v>1.552</v>
       </c>
       <c r="D180" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
@@ -10993,7 +10998,7 @@
         <v>21.788</v>
       </c>
       <c r="D214" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
@@ -11007,7 +11012,7 @@
         <v>12.795</v>
       </c>
       <c r="D215" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
@@ -12463,7 +12468,7 @@
         <v>107.11</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
@@ -13051,7 +13056,7 @@
         <v>2.8969999999999998</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.4">
@@ -14927,7 +14932,7 @@
         <v>6.6980000000000004</v>
       </c>
       <c r="D495" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.4">

--- a/doc/tables/landings.xlsx
+++ b/doc/tables/landings.xlsx
@@ -7995,7 +7995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12468,7 +12470,7 @@
         <v>107.11</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
